--- a/SLE_combustion_portfolio.xlsx
+++ b/SLE_combustion_portfolio.xlsx
@@ -433,13 +433,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="50" customWidth="1" min="1" max="1"/>
     <col width="66" customWidth="1" min="2" max="2"/>
@@ -448,13 +448,12 @@
     <col width="24" customWidth="1" min="5" max="5"/>
     <col width="31" customWidth="1" min="6" max="6"/>
     <col width="33" customWidth="1" min="7" max="7"/>
-    <col width="49" customWidth="1" min="8" max="8"/>
-    <col width="24" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
     <col width="21" customWidth="1" min="13" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -495,35 +494,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Einspeisungsart</t>
+          <t>Strasse</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Strasse</t>
+          <t>Hausnummer</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Hausnummer</t>
+          <t>Laengengrad</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Laengengrad</t>
+          <t>Breitengrad</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Breitengrad</t>
+          <t>Inbetriebnahmedatum</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Inbetriebnahmedatum</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Stilllegung</t>
         </is>
@@ -556,31 +550,26 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K2" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L2" t="n">
         <v>54.341</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>2018-07-09</t>
         </is>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="M2" s="3" t="n">
         <v>54248</v>
       </c>
     </row>
@@ -611,31 +600,26 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K3" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L3" t="n">
         <v>54.341</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>2018-08-13</t>
         </is>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="M3" s="3" t="n">
         <v>54283</v>
       </c>
     </row>
@@ -666,31 +650,26 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K4" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L4" t="n">
         <v>54.341</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>2018-07-12</t>
         </is>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="M4" s="3" t="n">
         <v>54251</v>
       </c>
     </row>
@@ -726,31 +705,26 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K5" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L5" t="n">
         <v>54.341</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>2019-11-13</t>
         </is>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="M5" s="3" t="n">
         <v>54740</v>
       </c>
     </row>
@@ -781,31 +755,26 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K6" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L6" t="n">
         <v>54.341</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>2018-07-13</t>
         </is>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="M6" s="3" t="n">
         <v>54252</v>
       </c>
     </row>
@@ -836,31 +805,26 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K7" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L7" t="n">
         <v>54.341</v>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>2018-06-05</t>
         </is>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="M7" s="3" t="n">
         <v>54214</v>
       </c>
     </row>
@@ -891,31 +855,26 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K8" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L8" t="n">
         <v>54.341</v>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>2018-08-10</t>
         </is>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="M8" s="3" t="n">
         <v>54280</v>
       </c>
     </row>
@@ -946,31 +905,26 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K9" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L9" t="n">
         <v>54.341</v>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>2018-08-21</t>
         </is>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="M9" s="3" t="n">
         <v>54291</v>
       </c>
     </row>
@@ -1001,31 +955,26 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K10" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L10" t="n">
         <v>54.341</v>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>2018-08-23</t>
         </is>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="M10" s="3" t="n">
         <v>54293</v>
       </c>
     </row>
@@ -1056,31 +1005,26 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K11" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L11" t="n">
         <v>54.341</v>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>2018-08-21</t>
         </is>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="M11" s="3" t="n">
         <v>54291</v>
       </c>
     </row>
@@ -1111,31 +1055,26 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K12" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L12" t="n">
         <v>54.341</v>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>2018-10-05</t>
         </is>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="M12" s="3" t="n">
         <v>54336</v>
       </c>
     </row>
@@ -1166,31 +1105,26 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K13" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L13" t="n">
         <v>54.341</v>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>2018-10-04</t>
         </is>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="M13" s="3" t="n">
         <v>54335</v>
       </c>
     </row>
@@ -1221,31 +1155,26 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K14" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L14" t="n">
         <v>54.341</v>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>2018-10-01</t>
         </is>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="M14" s="3" t="n">
         <v>54332</v>
       </c>
     </row>
@@ -1276,31 +1205,26 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K15" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L15" t="n">
         <v>54.341</v>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>2018-09-28</t>
         </is>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="M15" s="3" t="n">
         <v>54329</v>
       </c>
     </row>
@@ -1331,31 +1255,26 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K16" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L16" t="n">
         <v>54.341</v>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>2018-09-27</t>
         </is>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="M16" s="3" t="n">
         <v>54328</v>
       </c>
     </row>
@@ -1386,31 +1305,26 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K17" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L17" t="n">
         <v>54.341</v>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>2018-11-09</t>
         </is>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="M17" s="3" t="n">
         <v>54371</v>
       </c>
     </row>
@@ -1441,31 +1355,26 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K18" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L18" t="n">
         <v>54.341</v>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>2018-11-23</t>
         </is>
       </c>
-      <c r="N18" s="3" t="n">
+      <c r="M18" s="3" t="n">
         <v>54385</v>
       </c>
     </row>
@@ -1501,31 +1410,26 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K19" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L19" t="n">
         <v>54.341</v>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>2018-11-16</t>
         </is>
       </c>
-      <c r="N19" s="3" t="n">
+      <c r="M19" s="3" t="n">
         <v>54378</v>
       </c>
     </row>
@@ -1556,31 +1460,26 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J20" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K20" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L20" t="n">
         <v>54.341</v>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>2018-11-21</t>
         </is>
       </c>
-      <c r="N20" s="3" t="n">
+      <c r="M20" s="3" t="n">
         <v>54383</v>
       </c>
     </row>
@@ -1611,31 +1510,26 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J21" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K21" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L21" t="n">
         <v>54.341</v>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>2018-12-07</t>
         </is>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="M21" s="3" t="n">
         <v>54399</v>
       </c>
     </row>
@@ -1666,31 +1560,26 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J22" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K22" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L22" t="n">
         <v>54.341</v>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>2018-07-13</t>
         </is>
       </c>
-      <c r="N22" s="3" t="n">
+      <c r="M22" s="3" t="n">
         <v>54252</v>
       </c>
     </row>
@@ -1726,31 +1615,26 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Goethestraße</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Goethestraße</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
           <t>14</t>
         </is>
       </c>
+      <c r="J23" t="n">
+        <v>10.126</v>
+      </c>
       <c r="K23" t="n">
-        <v>10.126</v>
-      </c>
-      <c r="L23" t="n">
         <v>54.327</v>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>2005-04-27</t>
         </is>
       </c>
-      <c r="N23" s="3" t="n">
+      <c r="M23" s="3" t="n">
         <v>53079</v>
       </c>
     </row>
@@ -1786,31 +1670,26 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Goethestraße</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Goethestraße</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
           <t>14</t>
         </is>
       </c>
+      <c r="J24" t="n">
+        <v>10.126</v>
+      </c>
       <c r="K24" t="n">
-        <v>10.126</v>
-      </c>
-      <c r="L24" t="n">
         <v>54.327</v>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>2005-04-27</t>
         </is>
       </c>
-      <c r="N24" s="3" t="n">
+      <c r="M24" s="3" t="n">
         <v>53079</v>
       </c>
     </row>
@@ -1846,31 +1725,26 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Goethestraße</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Goethestraße</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
           <t>14</t>
         </is>
       </c>
+      <c r="J25" t="n">
+        <v>10.126</v>
+      </c>
       <c r="K25" t="n">
-        <v>10.126</v>
-      </c>
-      <c r="L25" t="n">
         <v>54.327</v>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>2014-10-01</t>
         </is>
       </c>
-      <c r="N25" s="3" t="n">
+      <c r="M25" s="3" t="n">
         <v>56523</v>
       </c>
     </row>
@@ -1906,31 +1780,26 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Goethestraße</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Goethestraße</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
           <t>14</t>
         </is>
       </c>
+      <c r="J26" t="n">
+        <v>10.126</v>
+      </c>
       <c r="K26" t="n">
-        <v>10.126</v>
-      </c>
-      <c r="L26" t="n">
         <v>54.327</v>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>2014-10-01</t>
         </is>
       </c>
-      <c r="N26" s="3" t="n">
+      <c r="M26" s="3" t="n">
         <v>56523</v>
       </c>
     </row>
@@ -1966,31 +1835,26 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Theodor-Heuss-Ring</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Theodor-Heuss-Ring</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J27" t="n">
+        <v>10.112567</v>
+      </c>
       <c r="K27" t="n">
-        <v>10.112567</v>
-      </c>
-      <c r="L27" t="n">
         <v>54.307448</v>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>1995-07-01</t>
         </is>
       </c>
-      <c r="N27" s="3" t="n">
+      <c r="M27" s="3" t="n">
         <v>53144</v>
       </c>
     </row>
@@ -2021,31 +1885,26 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Wittland</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Wittland</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
           <t>5</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>10.083657</v>
+      </c>
       <c r="K28" t="n">
-        <v>10.083657</v>
-      </c>
-      <c r="L28" t="n">
         <v>54.325631</v>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>2021-11-02</t>
         </is>
       </c>
-      <c r="N28" s="3" t="n">
+      <c r="M28" s="3" t="n">
         <v>55459</v>
       </c>
     </row>
@@ -2076,31 +1935,26 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Wittland</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Wittland</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
           <t>5</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>10.083657</v>
+      </c>
       <c r="K29" t="n">
-        <v>10.083657</v>
-      </c>
-      <c r="L29" t="n">
         <v>54.325631</v>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>2021-11-02</t>
         </is>
       </c>
-      <c r="N29" s="3" t="n">
+      <c r="M29" s="3" t="n">
         <v>55459</v>
       </c>
     </row>
@@ -2136,31 +1990,26 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Uferstraße</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Uferstraße</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
           <t>80</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>10.109881</v>
+      </c>
       <c r="K30" t="n">
-        <v>10.109881</v>
-      </c>
-      <c r="L30" t="n">
         <v>54.368752</v>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>2009-07-06</t>
         </is>
       </c>
-      <c r="N30" s="3" t="n">
+      <c r="M30" s="3" t="n">
         <v>54610</v>
       </c>
     </row>
@@ -2191,31 +2040,26 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Steenbeker Weg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Steenbeker Weg</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
           <t>25</t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>10.115433</v>
+      </c>
       <c r="K31" t="n">
-        <v>10.115433</v>
-      </c>
-      <c r="L31" t="n">
         <v>54.353733</v>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>2012-08-15</t>
         </is>
       </c>
-      <c r="N31" s="3" t="n">
+      <c r="M31" s="3" t="n">
         <v>52093</v>
       </c>
     </row>
@@ -2251,31 +2095,26 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Bustorfer Weg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Bustorfer Weg</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
           <t>78</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>10.127</v>
+      </c>
       <c r="K32" t="n">
-        <v>10.127</v>
-      </c>
-      <c r="L32" t="n">
         <v>54.283</v>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>2017-09-25</t>
         </is>
       </c>
-      <c r="N32" s="3" t="n">
+      <c r="M32" s="3" t="n">
         <v>53960</v>
       </c>
     </row>
@@ -2311,31 +2150,26 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Bunsenstraße</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Bunsenstraße</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
           <t>5</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>10.154363</v>
+      </c>
       <c r="K33" t="n">
-        <v>10.154363</v>
-      </c>
-      <c r="L33" t="n">
         <v>54.280121</v>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>2015-07-13</t>
         </is>
       </c>
-      <c r="N33" s="3" t="n">
+      <c r="M33" s="3" t="n">
         <v>56808</v>
       </c>
     </row>
@@ -2371,31 +2205,26 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Werftstraße</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Werftstraße</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
           <t>112</t>
         </is>
       </c>
+      <c r="J34" t="n">
+        <v>10.153826</v>
+      </c>
       <c r="K34" t="n">
-        <v>10.153826</v>
-      </c>
-      <c r="L34" t="n">
         <v>54.315997</v>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>2019-09-02</t>
         </is>
       </c>
-      <c r="N34" s="3" t="n">
+      <c r="M34" s="3" t="n">
         <v>54668</v>
       </c>
     </row>
@@ -2431,31 +2260,26 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Werftstraße</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Werftstraße</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
           <t>112</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>10.153826</v>
+      </c>
       <c r="K35" t="n">
-        <v>10.153826</v>
-      </c>
-      <c r="L35" t="n">
         <v>54.315997</v>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>2019-09-02</t>
         </is>
       </c>
-      <c r="N35" s="3" t="n">
+      <c r="M35" s="3" t="n">
         <v>54668</v>
       </c>
     </row>
@@ -2486,31 +2310,26 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Bräutigamweg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Bräutigamweg</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
           <t>11 a</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>10.133896</v>
+      </c>
       <c r="K36" t="n">
-        <v>10.133896</v>
-      </c>
-      <c r="L36" t="n">
         <v>54.373764</v>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="N36" s="3" t="n">
+      <c r="M36" s="3" t="n">
         <v>56036</v>
       </c>
     </row>
@@ -2541,31 +2360,26 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Mühlenweg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Mühlenweg</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
           <t>166</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>10.106863</v>
+      </c>
       <c r="K37" t="n">
-        <v>10.106863</v>
-      </c>
-      <c r="L37" t="n">
         <v>54.331986</v>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>2020-06-01</t>
         </is>
       </c>
-      <c r="N37" s="3" t="n">
+      <c r="M37" s="3" t="n">
         <v>54940</v>
       </c>
     </row>
@@ -2596,31 +2410,26 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Gutenbergstraße</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Gutenbergstraße</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
           <t>86</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>10.113145</v>
+      </c>
       <c r="K38" t="n">
-        <v>10.113145</v>
-      </c>
-      <c r="L38" t="n">
         <v>54.33372</v>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>2014-07-15</t>
         </is>
       </c>
-      <c r="N38" s="3" t="n">
+      <c r="M38" s="3" t="n">
         <v>52793</v>
       </c>
     </row>
@@ -2656,31 +2465,26 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Steenbarg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Steenbarg</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
           <t>10</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>10.166572</v>
+      </c>
       <c r="K39" t="n">
-        <v>10.166572</v>
-      </c>
-      <c r="L39" t="n">
         <v>54.39241</v>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>2016-01-12</t>
         </is>
       </c>
-      <c r="N39" s="3" t="n">
+      <c r="M39" s="3" t="n">
         <v>53339</v>
       </c>
     </row>
@@ -2716,31 +2520,26 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Allgäuer Straße</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Allgäuer Straße</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>10.193904</v>
+      </c>
       <c r="K40" t="n">
-        <v>10.193904</v>
-      </c>
-      <c r="L40" t="n">
         <v>54.291697</v>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>2009-05-25</t>
         </is>
       </c>
-      <c r="N40" s="3" t="n">
+      <c r="M40" s="3" t="n">
         <v>50915</v>
       </c>
     </row>
@@ -2776,31 +2575,26 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Rüsterstraße</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Rüsterstraße</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
           <t>30</t>
         </is>
       </c>
+      <c r="J41" t="n">
+        <v>10.179</v>
+      </c>
       <c r="K41" t="n">
-        <v>10.179</v>
-      </c>
-      <c r="L41" t="n">
         <v>54.294</v>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>2017-06-20</t>
         </is>
       </c>
-      <c r="N41" s="3" t="n">
+      <c r="M41" s="3" t="n">
         <v>53863</v>
       </c>
     </row>
@@ -2836,31 +2630,26 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Lindenweg</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Lindenweg</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
           <t>26</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>10.151268</v>
+      </c>
       <c r="K42" t="n">
-        <v>10.151268</v>
-      </c>
-      <c r="L42" t="n">
         <v>54.370925</v>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>2019-12-06</t>
         </is>
       </c>
-      <c r="N42" s="3" t="n">
+      <c r="M42" s="3" t="n">
         <v>54763</v>
       </c>
     </row>
@@ -2896,31 +2685,26 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Fritz-Reuter-Straße</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Fritz-Reuter-Straße</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
           <t>23</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>10.160491</v>
+      </c>
       <c r="K43" t="n">
-        <v>10.160491</v>
-      </c>
-      <c r="L43" t="n">
         <v>54.390789</v>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>2019-12-11</t>
         </is>
       </c>
-      <c r="N43" s="3" t="n">
+      <c r="M43" s="3" t="n">
         <v>54768</v>
       </c>
     </row>
@@ -2956,31 +2740,26 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Graf-Luckner-Straße</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Graf-Luckner-Straße</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
           <t>5</t>
         </is>
       </c>
+      <c r="J44" t="n">
+        <v>10.170512</v>
+      </c>
       <c r="K44" t="n">
-        <v>10.170512</v>
-      </c>
-      <c r="L44" t="n">
         <v>54.41348</v>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>2014-07-04</t>
         </is>
       </c>
-      <c r="N44" s="3" t="n">
+      <c r="M44" s="3" t="n">
         <v>52782</v>
       </c>
     </row>
@@ -3011,31 +2790,26 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Brauner Berg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Brauner Berg</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
           <t>15</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>10.174886</v>
+      </c>
       <c r="K45" t="n">
-        <v>10.174886</v>
-      </c>
-      <c r="L45" t="n">
         <v>54.396269</v>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>2023-12-12</t>
         </is>
       </c>
-      <c r="N45" s="3" t="n">
+      <c r="M45" s="3" t="n">
         <v>56230</v>
       </c>
     </row>
@@ -3071,31 +2845,26 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Radewisch</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Radewisch</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
+      <c r="J46" t="n">
+        <v>10.13734</v>
+      </c>
       <c r="K46" t="n">
-        <v>10.13734</v>
-      </c>
-      <c r="L46" t="n">
         <v>54.276782</v>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>2013-08-08</t>
         </is>
       </c>
-      <c r="N46" s="3" t="n">
+      <c r="M46" s="3" t="n">
         <v>52451</v>
       </c>
     </row>
@@ -3131,31 +2900,26 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Friedlander Weg</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Friedlander Weg</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
           <t>21</t>
         </is>
       </c>
+      <c r="J47" t="n">
+        <v>10.190999</v>
+      </c>
       <c r="K47" t="n">
-        <v>10.190999</v>
-      </c>
-      <c r="L47" t="n">
         <v>54.294991</v>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>2014-01-31</t>
         </is>
       </c>
-      <c r="N47" s="3" t="n">
+      <c r="M47" s="3" t="n">
         <v>52627</v>
       </c>
     </row>
@@ -3186,31 +2950,26 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Brüggerfelde</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Brüggerfelde</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
           <t>1</t>
         </is>
       </c>
+      <c r="J48" t="n">
+        <v>10.1129</v>
+      </c>
       <c r="K48" t="n">
-        <v>10.1129</v>
-      </c>
-      <c r="L48" t="n">
         <v>54.293121</v>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>2020-08-28</t>
         </is>
       </c>
-      <c r="N48" s="3" t="n">
+      <c r="M48" s="3" t="n">
         <v>55028</v>
       </c>
     </row>
@@ -3241,31 +3000,26 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Jettkorn</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Jettkorn</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
           <t>16</t>
         </is>
       </c>
+      <c r="J49" t="n">
+        <v>10.1806</v>
+      </c>
       <c r="K49" t="n">
-        <v>10.1806</v>
-      </c>
-      <c r="L49" t="n">
         <v>54.292271</v>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>2020-09-01</t>
         </is>
       </c>
-      <c r="N49" s="3" t="n">
+      <c r="M49" s="3" t="n">
         <v>55032</v>
       </c>
     </row>
@@ -3291,31 +3045,26 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Kaistraße</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Kaistraße</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
           <t>80</t>
         </is>
       </c>
+      <c r="J50" t="n">
+        <v>10.131292</v>
+      </c>
       <c r="K50" t="n">
-        <v>10.131292</v>
-      </c>
-      <c r="L50" t="n">
         <v>54.312346</v>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>2020-09-16</t>
         </is>
       </c>
-      <c r="N50" s="3" t="n">
+      <c r="M50" s="3" t="n">
         <v>55047</v>
       </c>
     </row>
@@ -3346,31 +3095,26 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Radewisch</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Radewisch</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
           <t>902</t>
         </is>
       </c>
+      <c r="J51" t="n">
+        <v>10.134885</v>
+      </c>
       <c r="K51" t="n">
-        <v>10.134885</v>
-      </c>
-      <c r="L51" t="n">
         <v>54.280134</v>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="N51" s="3" t="n">
+      <c r="M51" s="3" t="n">
         <v>56133</v>
       </c>
     </row>
@@ -3406,31 +3150,26 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Volleinspeisung</t>
+          <t>Wagnerring</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Wagnerring</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
           <t>7 b</t>
         </is>
       </c>
+      <c r="J52" t="n">
+        <v>10.157</v>
+      </c>
       <c r="K52" t="n">
-        <v>10.157</v>
-      </c>
-      <c r="L52" t="n">
         <v>54.396</v>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>2018-11-07</t>
         </is>
       </c>
-      <c r="N52" s="3" t="n">
+      <c r="M52" s="3" t="n">
         <v>54369</v>
       </c>
     </row>
@@ -3464,17 +3203,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>2013-10-16</t>
         </is>
       </c>
-      <c r="N53" s="3" t="n">
+      <c r="M53" s="3" t="n">
         <v>52520</v>
       </c>
     </row>
@@ -3503,17 +3237,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>2017-11-28</t>
         </is>
       </c>
-      <c r="N54" s="3" t="n">
+      <c r="M54" s="3" t="n">
         <v>54024</v>
       </c>
     </row>
@@ -3547,17 +3276,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>2016-09-30</t>
         </is>
       </c>
-      <c r="N55" s="3" t="n">
+      <c r="M55" s="3" t="n">
         <v>53600</v>
       </c>
     </row>
@@ -3586,17 +3310,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>2021-07-14</t>
         </is>
       </c>
-      <c r="N56" s="3" t="n">
+      <c r="M56" s="3" t="n">
         <v>55348</v>
       </c>
     </row>
@@ -3625,17 +3344,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>2021-08-01</t>
         </is>
       </c>
-      <c r="N57" s="3" t="n">
+      <c r="M57" s="3" t="n">
         <v>55366</v>
       </c>
     </row>
@@ -3664,17 +3378,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>2021-08-01</t>
         </is>
       </c>
-      <c r="N58" s="3" t="n">
+      <c r="M58" s="3" t="n">
         <v>55366</v>
       </c>
     </row>
@@ -3708,12 +3417,7 @@
           <t>Sonstige</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>2019-10-24</t>
         </is>
@@ -3749,17 +3453,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
+      <c r="L60" t="inlineStr">
         <is>
           <t>2017-08-11</t>
         </is>
       </c>
-      <c r="N60" s="3" t="n">
+      <c r="M60" s="3" t="n">
         <v>53915</v>
       </c>
     </row>
@@ -3793,17 +3492,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>2012-03-27</t>
         </is>
       </c>
-      <c r="N61" s="3" t="n">
+      <c r="M61" s="3" t="n">
         <v>51952</v>
       </c>
     </row>
@@ -3832,17 +3526,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
+      <c r="L62" t="inlineStr">
         <is>
           <t>2020-09-02</t>
         </is>
       </c>
-      <c r="N62" s="3" t="n">
+      <c r="M62" s="3" t="n">
         <v>55033</v>
       </c>
     </row>
@@ -3876,17 +3565,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>2012-03-27</t>
         </is>
       </c>
-      <c r="N63" s="3" t="n">
+      <c r="M63" s="3" t="n">
         <v>51952</v>
       </c>
     </row>
@@ -3915,17 +3599,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>2015-12-18</t>
         </is>
       </c>
-      <c r="N64" s="3" t="n">
+      <c r="M64" s="3" t="n">
         <v>53314</v>
       </c>
     </row>
@@ -3954,17 +3633,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>2023-12-19</t>
         </is>
       </c>
-      <c r="N65" s="3" t="n">
+      <c r="M65" s="3" t="n">
         <v>56237</v>
       </c>
     </row>
@@ -3993,17 +3667,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>2021-08-10</t>
         </is>
       </c>
-      <c r="N66" s="3" t="n">
+      <c r="M66" s="3" t="n">
         <v>55375</v>
       </c>
     </row>
@@ -4027,17 +3696,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>2021-04-28</t>
         </is>
       </c>
-      <c r="N67" s="3" t="n">
+      <c r="M67" s="3" t="n">
         <v>55271</v>
       </c>
     </row>
@@ -4066,17 +3730,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>2016-11-15</t>
         </is>
       </c>
-      <c r="N68" s="3" t="n">
+      <c r="M68" s="3" t="n">
         <v>53646</v>
       </c>
     </row>
@@ -4105,17 +3764,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>2020-11-11</t>
         </is>
       </c>
-      <c r="N69" s="3" t="n">
+      <c r="M69" s="3" t="n">
         <v>55103</v>
       </c>
     </row>
@@ -4144,17 +3798,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>2021-07-07</t>
         </is>
       </c>
-      <c r="N70" s="3" t="n">
+      <c r="M70" s="3" t="n">
         <v>55341</v>
       </c>
     </row>
@@ -4188,17 +3837,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>2015-11-19</t>
         </is>
       </c>
-      <c r="N71" s="3" t="n">
+      <c r="M71" s="3" t="n">
         <v>53285</v>
       </c>
     </row>
@@ -4232,17 +3876,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>2012-04-01</t>
         </is>
       </c>
-      <c r="N72" s="3" t="n">
+      <c r="M72" s="3" t="n">
         <v>51957</v>
       </c>
     </row>
@@ -4276,17 +3915,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>2010-05-31</t>
         </is>
       </c>
-      <c r="N73" s="3" t="n">
+      <c r="M73" s="3" t="n">
         <v>51287</v>
       </c>
     </row>
@@ -4320,17 +3954,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>2010-05-31</t>
         </is>
       </c>
-      <c r="N74" s="3" t="n">
+      <c r="M74" s="3" t="n">
         <v>51287</v>
       </c>
     </row>
@@ -4359,17 +3988,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>2021-02-11</t>
         </is>
       </c>
-      <c r="N75" s="3" t="n">
+      <c r="M75" s="3" t="n">
         <v>55195</v>
       </c>
     </row>
@@ -4393,17 +4017,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>2021-08-12</t>
         </is>
       </c>
-      <c r="N76" s="3" t="n">
+      <c r="M76" s="3" t="n">
         <v>55377</v>
       </c>
     </row>
@@ -4432,17 +4051,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="N77" s="3" t="n">
+      <c r="M77" s="3" t="n">
         <v>55974</v>
       </c>
     </row>
@@ -4471,17 +4085,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>2021-02-11</t>
         </is>
       </c>
-      <c r="N78" s="3" t="n">
+      <c r="M78" s="3" t="n">
         <v>55195</v>
       </c>
     </row>
@@ -4515,17 +4124,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>2015-07-02</t>
         </is>
       </c>
-      <c r="N79" s="3" t="n">
+      <c r="M79" s="3" t="n">
         <v>53145</v>
       </c>
     </row>
@@ -4554,17 +4158,12 @@
           <t>Stirlingmotor</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>2013-05-14</t>
         </is>
       </c>
-      <c r="N80" s="3" t="n">
+      <c r="M80" s="3" t="n">
         <v>50539</v>
       </c>
     </row>
@@ -4588,17 +4187,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>2008-12-18</t>
         </is>
       </c>
-      <c r="N81" s="3" t="n">
+      <c r="M81" s="3" t="n">
         <v>50757</v>
       </c>
     </row>
@@ -4632,17 +4226,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>2011-12-22</t>
         </is>
       </c>
-      <c r="N82" s="3" t="n">
+      <c r="M82" s="3" t="n">
         <v>51857</v>
       </c>
     </row>
@@ -4671,17 +4260,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
+      <c r="L83" t="inlineStr">
         <is>
           <t>2013-08-21</t>
         </is>
       </c>
-      <c r="N83" s="3" t="n">
+      <c r="M83" s="3" t="n">
         <v>52464</v>
       </c>
     </row>
@@ -4710,17 +4294,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
+      <c r="L84" t="inlineStr">
         <is>
           <t>2021-05-07</t>
         </is>
       </c>
-      <c r="N84" s="3" t="n">
+      <c r="M84" s="3" t="n">
         <v>55280</v>
       </c>
     </row>
@@ -4754,17 +4333,12 @@
           <t>Stirlingmotor</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
+      <c r="L85" t="inlineStr">
         <is>
           <t>2017-03-07</t>
         </is>
       </c>
-      <c r="N85" s="3" t="n">
+      <c r="M85" s="3" t="n">
         <v>51932</v>
       </c>
     </row>
@@ -4793,17 +4367,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
+      <c r="L86" t="inlineStr">
         <is>
           <t>2018-05-22</t>
         </is>
       </c>
-      <c r="N86" s="3" t="n">
+      <c r="M86" s="3" t="n">
         <v>54200</v>
       </c>
     </row>
@@ -4832,17 +4401,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
+      <c r="L87" t="inlineStr">
         <is>
           <t>2023-01-24</t>
         </is>
       </c>
-      <c r="N87" s="3" t="n">
+      <c r="M87" s="3" t="n">
         <v>55908</v>
       </c>
     </row>
@@ -4876,17 +4440,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
+      <c r="L88" t="inlineStr">
         <is>
           <t>2015-05-12</t>
         </is>
       </c>
-      <c r="N88" s="3" t="n">
+      <c r="M88" s="3" t="n">
         <v>53094</v>
       </c>
     </row>
@@ -4915,17 +4474,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
+      <c r="L89" t="inlineStr">
         <is>
           <t>2020-11-01</t>
         </is>
       </c>
-      <c r="N89" s="3" t="n">
+      <c r="M89" s="3" t="n">
         <v>55093</v>
       </c>
     </row>
@@ -4954,17 +4508,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
+      <c r="L90" t="inlineStr">
         <is>
           <t>2004-07-22</t>
         </is>
       </c>
-      <c r="N90" s="3" t="n">
+      <c r="M90" s="3" t="n">
         <v>49147</v>
       </c>
     </row>
@@ -4993,17 +4542,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
+      <c r="L91" t="inlineStr">
         <is>
           <t>2004-07-22</t>
         </is>
       </c>
-      <c r="N91" s="3" t="n">
+      <c r="M91" s="3" t="n">
         <v>49147</v>
       </c>
     </row>
@@ -5037,17 +4581,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
+      <c r="L92" t="inlineStr">
         <is>
           <t>2007-10-02</t>
         </is>
       </c>
-      <c r="N92" s="3" t="n">
+      <c r="M92" s="3" t="n">
         <v>50315</v>
       </c>
     </row>
@@ -5081,17 +4620,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
+      <c r="L93" t="inlineStr">
         <is>
           <t>2014-07-29</t>
         </is>
       </c>
-      <c r="N93" s="3" t="n">
+      <c r="M93" s="3" t="n">
         <v>52807</v>
       </c>
     </row>
@@ -5120,17 +4654,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
+      <c r="L94" t="inlineStr">
         <is>
           <t>2017-12-20</t>
         </is>
       </c>
-      <c r="N94" s="3" t="n">
+      <c r="M94" s="3" t="n">
         <v>54046</v>
       </c>
     </row>
@@ -5164,17 +4693,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
+      <c r="L95" t="inlineStr">
         <is>
           <t>2010-08-03</t>
         </is>
       </c>
-      <c r="N95" s="3" t="n">
+      <c r="M95" s="3" t="n">
         <v>51351</v>
       </c>
     </row>
@@ -5208,17 +4732,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
+      <c r="L96" t="inlineStr">
         <is>
           <t>2012-10-02</t>
         </is>
       </c>
-      <c r="N96" s="3" t="n">
+      <c r="M96" s="3" t="n">
         <v>52141</v>
       </c>
     </row>
@@ -5252,17 +4771,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
+      <c r="L97" t="inlineStr">
         <is>
           <t>2010-08-03</t>
         </is>
       </c>
-      <c r="N97" s="3" t="n">
+      <c r="M97" s="3" t="n">
         <v>51351</v>
       </c>
     </row>
@@ -5291,17 +4805,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>2009-10-01</t>
         </is>
       </c>
-      <c r="N98" s="3" t="n">
+      <c r="M98" s="3" t="n">
         <v>51044</v>
       </c>
     </row>
@@ -5335,17 +4844,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
+      <c r="L99" t="inlineStr">
         <is>
           <t>2014-07-07</t>
         </is>
       </c>
-      <c r="N99" s="3" t="n">
+      <c r="M99" s="3" t="n">
         <v>52785</v>
       </c>
     </row>
@@ -5379,17 +4883,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
+      <c r="L100" t="inlineStr">
         <is>
           <t>2015-09-15</t>
         </is>
       </c>
-      <c r="N100" s="3" t="n">
+      <c r="M100" s="3" t="n">
         <v>53220</v>
       </c>
     </row>
@@ -5418,17 +4917,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
+      <c r="L101" t="inlineStr">
         <is>
           <t>2011-01-21</t>
         </is>
       </c>
-      <c r="N101" s="3" t="n">
+      <c r="M101" s="3" t="n">
         <v>51522</v>
       </c>
     </row>
@@ -5457,17 +4951,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
+      <c r="L102" t="inlineStr">
         <is>
           <t>2021-11-01</t>
         </is>
       </c>
-      <c r="N102" s="3" t="n">
+      <c r="M102" s="3" t="n">
         <v>49980</v>
       </c>
     </row>
@@ -5501,17 +4990,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
+      <c r="L103" t="inlineStr">
         <is>
           <t>2015-05-01</t>
         </is>
       </c>
-      <c r="N103" s="3" t="n">
+      <c r="M103" s="3" t="n">
         <v>53083</v>
       </c>
     </row>
@@ -5540,17 +5024,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
+      <c r="L104" t="inlineStr">
         <is>
           <t>2021-02-16</t>
         </is>
       </c>
-      <c r="N104" s="3" t="n">
+      <c r="M104" s="3" t="n">
         <v>55200</v>
       </c>
     </row>
@@ -5584,17 +5063,12 @@
           <t>Gasturbinen mit Abhitzekessel</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
+      <c r="L105" t="inlineStr">
         <is>
           <t>2013-09-20</t>
         </is>
       </c>
-      <c r="N105" s="3" t="n">
+      <c r="M105" s="3" t="n">
         <v>56147</v>
       </c>
     </row>
@@ -5623,17 +5097,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>2021-02-01</t>
         </is>
       </c>
-      <c r="N106" s="3" t="n">
+      <c r="M106" s="3" t="n">
         <v>49706</v>
       </c>
     </row>
@@ -5662,17 +5131,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
+      <c r="L107" t="inlineStr">
         <is>
           <t>2013-02-04</t>
         </is>
       </c>
-      <c r="N107" s="3" t="n">
+      <c r="M107" s="3" t="n">
         <v>46787</v>
       </c>
     </row>
@@ -5701,17 +5165,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
+      <c r="L108" t="inlineStr">
         <is>
           <t>2011-05-30</t>
         </is>
       </c>
-      <c r="N108" s="3" t="n">
+      <c r="M108" s="3" t="n">
         <v>51651</v>
       </c>
     </row>
@@ -5740,17 +5199,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
+      <c r="L109" t="inlineStr">
         <is>
           <t>2020-09-08</t>
         </is>
       </c>
-      <c r="N109" s="3" t="n">
+      <c r="M109" s="3" t="n">
         <v>49560</v>
       </c>
     </row>
@@ -5784,17 +5238,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
+      <c r="L110" t="inlineStr">
         <is>
           <t>2019-10-17</t>
         </is>
       </c>
-      <c r="N110" s="3" t="n">
+      <c r="M110" s="3" t="n">
         <v>49234</v>
       </c>
     </row>
@@ -5823,17 +5272,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
+      <c r="L111" t="inlineStr">
         <is>
           <t>2021-02-17</t>
         </is>
       </c>
-      <c r="N111" s="3" t="n">
+      <c r="M111" s="3" t="n">
         <v>49722</v>
       </c>
     </row>
@@ -5867,17 +5311,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
+      <c r="L112" t="inlineStr">
         <is>
           <t>2018-07-05</t>
         </is>
       </c>
-      <c r="N112" s="3" t="n">
+      <c r="M112" s="3" t="n">
         <v>48765</v>
       </c>
     </row>
@@ -5906,17 +5345,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
+      <c r="L113" t="inlineStr">
         <is>
           <t>2021-04-22</t>
         </is>
       </c>
-      <c r="N113" s="3" t="n">
+      <c r="M113" s="3" t="n">
         <v>49787</v>
       </c>
     </row>
@@ -5945,17 +5379,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
+      <c r="L114" t="inlineStr">
         <is>
           <t>2021-07-19</t>
         </is>
       </c>
-      <c r="N114" s="3" t="n">
+      <c r="M114" s="3" t="n">
         <v>49875</v>
       </c>
     </row>
@@ -5978,28 +5407,28 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Holstenstraße</t>
+        </is>
+      </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Holstenstraße</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
           <t>10</t>
         </is>
       </c>
+      <c r="J115" t="n">
+        <v>10.138923</v>
+      </c>
       <c r="K115" t="n">
-        <v>10.138923</v>
-      </c>
-      <c r="L115" t="n">
         <v>54.322621</v>
       </c>
-      <c r="M115" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>2012-11-30</t>
         </is>
       </c>
-      <c r="N115" s="3" t="n">
+      <c r="M115" s="3" t="n">
         <v>52200</v>
       </c>
     </row>
@@ -6024,31 +5453,26 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Malmöweg</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>Malmöweg</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
           <t>7</t>
         </is>
       </c>
+      <c r="J116" t="n">
+        <v>10.058293</v>
+      </c>
       <c r="K116" t="n">
-        <v>10.058293</v>
-      </c>
-      <c r="L116" t="n">
         <v>54.321531</v>
       </c>
-      <c r="M116" t="inlineStr">
+      <c r="L116" t="inlineStr">
         <is>
           <t>1990-10-01</t>
         </is>
       </c>
-      <c r="N116" s="3" t="n">
+      <c r="M116" s="3" t="n">
         <v>44105</v>
       </c>
     </row>
@@ -6078,31 +5502,26 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Am Kiel-Kanal</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>Am Kiel-Kanal</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
           <t>25</t>
         </is>
       </c>
+      <c r="J117" t="n">
+        <v>10.135094</v>
+      </c>
       <c r="K117" t="n">
-        <v>10.135094</v>
-      </c>
-      <c r="L117" t="n">
         <v>54.364804</v>
       </c>
-      <c r="M117" t="inlineStr">
+      <c r="L117" t="inlineStr">
         <is>
           <t>1990-10-01</t>
         </is>
       </c>
-      <c r="N117" s="3" t="n">
+      <c r="M117" s="3" t="n">
         <v>44105</v>
       </c>
     </row>
@@ -6132,31 +5551,26 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Hasselfelde</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>Hasselfelde</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
           <t>16</t>
         </is>
       </c>
+      <c r="J118" t="n">
+        <v>10.183246</v>
+      </c>
       <c r="K118" t="n">
-        <v>10.183246</v>
-      </c>
-      <c r="L118" t="n">
         <v>54.343447</v>
       </c>
-      <c r="M118" t="inlineStr">
+      <c r="L118" t="inlineStr">
         <is>
           <t>1990-10-01</t>
         </is>
       </c>
-      <c r="N118" s="3" t="n">
+      <c r="M118" s="3" t="n">
         <v>44105</v>
       </c>
     </row>
@@ -6181,31 +5595,26 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Chemnitzstraße</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Chemnitzstraße</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
           <t>33</t>
         </is>
       </c>
+      <c r="J119" t="n">
+        <v>10.116955</v>
+      </c>
       <c r="K119" t="n">
-        <v>10.116955</v>
-      </c>
-      <c r="L119" t="n">
         <v>54.322398</v>
       </c>
-      <c r="M119" t="inlineStr">
+      <c r="L119" t="inlineStr">
         <is>
           <t>2013-04-11</t>
         </is>
       </c>
-      <c r="N119" s="3" t="n">
+      <c r="M119" s="3" t="n">
         <v>52332</v>
       </c>
     </row>
@@ -6230,31 +5639,26 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Chemnitzstraße</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Chemnitzstraße</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
           <t>33</t>
         </is>
       </c>
+      <c r="J120" t="n">
+        <v>10.116955</v>
+      </c>
       <c r="K120" t="n">
-        <v>10.116955</v>
-      </c>
-      <c r="L120" t="n">
         <v>54.322398</v>
       </c>
-      <c r="M120" t="inlineStr">
+      <c r="L120" t="inlineStr">
         <is>
           <t>2003-09-25</t>
         </is>
       </c>
-      <c r="N120" s="3" t="n">
+      <c r="M120" s="3" t="n">
         <v>48847</v>
       </c>
     </row>
@@ -6279,31 +5683,26 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Chemnitzstraße</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Chemnitzstraße</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
           <t>33</t>
         </is>
       </c>
+      <c r="J121" t="n">
+        <v>10.116955</v>
+      </c>
       <c r="K121" t="n">
-        <v>10.116955</v>
-      </c>
-      <c r="L121" t="n">
         <v>54.322398</v>
       </c>
-      <c r="M121" t="inlineStr">
+      <c r="L121" t="inlineStr">
         <is>
           <t>2017-11-16</t>
         </is>
       </c>
-      <c r="N121" s="3" t="n">
+      <c r="M121" s="3" t="n">
         <v>54012</v>
       </c>
     </row>
@@ -6328,31 +5727,26 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Knooper Weg</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>Knooper Weg</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
           <t>99</t>
         </is>
       </c>
+      <c r="J122" t="n">
+        <v>10.128443</v>
+      </c>
       <c r="K122" t="n">
-        <v>10.128443</v>
-      </c>
-      <c r="L122" t="n">
         <v>54.329194</v>
       </c>
-      <c r="M122" t="inlineStr">
+      <c r="L122" t="inlineStr">
         <is>
           <t>2003-07-09</t>
         </is>
       </c>
-      <c r="N122" s="3" t="n">
+      <c r="M122" s="3" t="n">
         <v>48769</v>
       </c>
     </row>
@@ -6377,31 +5771,26 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Jungmannstraße</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Jungmannstraße</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
           <t>48</t>
         </is>
       </c>
+      <c r="J123" t="n">
+        <v>10.130918</v>
+      </c>
       <c r="K123" t="n">
-        <v>10.130918</v>
-      </c>
-      <c r="L123" t="n">
         <v>54.332378</v>
       </c>
-      <c r="M123" t="inlineStr">
+      <c r="L123" t="inlineStr">
         <is>
           <t>1991-11-13</t>
         </is>
       </c>
-      <c r="N123" s="3" t="n">
+      <c r="M123" s="3" t="n">
         <v>44513</v>
       </c>
     </row>
@@ -6426,31 +5815,26 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Kronshagener Weg</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Kronshagener Weg</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
           <t>107</t>
         </is>
       </c>
+      <c r="J124" t="n">
+        <v>10.107029</v>
+      </c>
       <c r="K124" t="n">
-        <v>10.107029</v>
-      </c>
-      <c r="L124" t="n">
         <v>54.326647</v>
       </c>
-      <c r="M124" t="inlineStr">
+      <c r="L124" t="inlineStr">
         <is>
           <t>1983-08-10</t>
         </is>
       </c>
-      <c r="N124" s="3" t="n">
+      <c r="M124" s="3" t="n">
         <v>41496</v>
       </c>
     </row>
@@ -6475,31 +5859,26 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Rendsburger Landstraße</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>Rendsburger Landstraße</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
           <t>91 c</t>
         </is>
       </c>
+      <c r="J125" t="n">
+        <v>10.106041</v>
+      </c>
       <c r="K125" t="n">
-        <v>10.106041</v>
-      </c>
-      <c r="L125" t="n">
         <v>54.304114</v>
       </c>
-      <c r="M125" t="inlineStr">
+      <c r="L125" t="inlineStr">
         <is>
           <t>1990-09-11</t>
         </is>
       </c>
-      <c r="N125" s="3" t="n">
+      <c r="M125" s="3" t="n">
         <v>44085</v>
       </c>
     </row>
@@ -6524,31 +5903,26 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Goethestraße</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Goethestraße</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
           <t>14</t>
         </is>
       </c>
+      <c r="J126" t="n">
+        <v>10.126082</v>
+      </c>
       <c r="K126" t="n">
-        <v>10.126082</v>
-      </c>
-      <c r="L126" t="n">
         <v>54.327334</v>
       </c>
-      <c r="M126" t="inlineStr">
+      <c r="L126" t="inlineStr">
         <is>
           <t>2020-07-08</t>
         </is>
       </c>
-      <c r="N126" s="3" t="n">
+      <c r="M126" s="3" t="n">
         <v>54977</v>
       </c>
     </row>
@@ -6563,13 +5937,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="27" customWidth="1" min="1" max="1"/>
     <col width="45" customWidth="1" min="2" max="2"/>
@@ -6578,13 +5952,12 @@
     <col width="24" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="36" customWidth="1" min="7" max="7"/>
-    <col width="49" customWidth="1" min="8" max="8"/>
-    <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
     <col width="21" customWidth="1" min="13" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6625,35 +5998,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Einspeisungsart</t>
+          <t>Strasse</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Strasse</t>
+          <t>Hausnummer</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Hausnummer</t>
+          <t>Laengengrad</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Laengengrad</t>
+          <t>Breitengrad</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Breitengrad</t>
+          <t>Inbetriebnahmedatum</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Inbetriebnahmedatum</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Stilllegung</t>
         </is>
@@ -6691,29 +6059,24 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
           <t>Siedlerweg</t>
         </is>
       </c>
+      <c r="I2" t="n">
+        <v>11</v>
+      </c>
       <c r="J2" t="n">
-        <v>11</v>
+        <v>13.829107</v>
       </c>
       <c r="K2" t="n">
-        <v>13.829107</v>
-      </c>
-      <c r="L2" t="n">
         <v>52.488205</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>2007-12-12</t>
         </is>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="M2" s="3" t="n">
         <v>61343</v>
       </c>
     </row>
@@ -6744,29 +6107,24 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
           <t>Tasdorf Süd</t>
         </is>
       </c>
+      <c r="I3" t="n">
+        <v>15</v>
+      </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>13.781914</v>
       </c>
       <c r="K3" t="n">
-        <v>13.781914</v>
-      </c>
-      <c r="L3" t="n">
         <v>52.491921</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>2014-04-25</t>
         </is>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="M3" s="3" t="n">
         <v>52712</v>
       </c>
     </row>
@@ -6795,17 +6153,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>2022-05-09</t>
         </is>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="M4" s="3" t="n">
         <v>50169</v>
       </c>
     </row>
@@ -6836,29 +6189,24 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
           <t>Seebad</t>
         </is>
       </c>
+      <c r="I5" t="n">
+        <v>83</v>
+      </c>
       <c r="J5" t="n">
-        <v>83</v>
+        <v>13.773696</v>
       </c>
       <c r="K5" t="n">
-        <v>13.773696</v>
-      </c>
-      <c r="L5" t="n">
         <v>52.454703</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>2014-07-18</t>
         </is>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="M5" s="3" t="n">
         <v>52796</v>
       </c>
     </row>
@@ -6892,23 +6240,18 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
+      <c r="J6" t="n">
+        <v>13.7777</v>
       </c>
       <c r="K6" t="n">
-        <v>13.7777</v>
-      </c>
-      <c r="L6" t="n">
         <v>52.4841</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>2015-07-29</t>
         </is>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="M6" s="3" t="n">
         <v>53172</v>
       </c>
     </row>
@@ -6937,17 +6280,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>2021-06-01</t>
         </is>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="M7" s="3" t="n">
         <v>55305</v>
       </c>
     </row>
@@ -6976,17 +6314,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>2018-03-13</t>
         </is>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="M8" s="3" t="n">
         <v>48651</v>
       </c>
     </row>
@@ -7015,17 +6348,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>2015-04-01</t>
         </is>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="M9" s="3" t="n">
         <v>53053</v>
       </c>
     </row>
@@ -7059,17 +6387,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>2020-02-28</t>
         </is>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="M10" s="3" t="n">
         <v>49368</v>
       </c>
     </row>
@@ -7103,17 +6426,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>2018-10-16</t>
         </is>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="M11" s="3" t="n">
         <v>48868</v>
       </c>
     </row>
@@ -7147,17 +6465,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>2019-04-24</t>
         </is>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="M12" s="3" t="n">
         <v>49058</v>
       </c>
     </row>
@@ -7187,29 +6500,24 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
           <t>Essigstraße</t>
         </is>
       </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>13.805</v>
       </c>
       <c r="K13" t="n">
-        <v>13.805</v>
-      </c>
-      <c r="L13" t="n">
         <v>52.473</v>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>2006-07-31</t>
         </is>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="M13" s="3" t="n">
         <v>49887</v>
       </c>
     </row>
@@ -7232,17 +6540,12 @@
           <t>Stirlingmotor</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>2012-05-09</t>
         </is>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="M14" s="3" t="n">
         <v>50169</v>
       </c>
     </row>
@@ -7257,13 +6560,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="28" customWidth="1" min="2" max="2"/>
@@ -7272,13 +6575,12 @@
     <col width="24" customWidth="1" min="5" max="5"/>
     <col width="35" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="49" customWidth="1" min="8" max="8"/>
-    <col width="24" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
     <col width="21" customWidth="1" min="13" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7319,35 +6621,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Einspeisungsart</t>
+          <t>Strasse</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Strasse</t>
+          <t>Hausnummer</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Hausnummer</t>
+          <t>Laengengrad</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Laengengrad</t>
+          <t>Breitengrad</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Breitengrad</t>
+          <t>Inbetriebnahmedatum</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Inbetriebnahmedatum</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Stilllegung</t>
         </is>
@@ -7380,31 +6677,26 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Hessenwinkler Straße</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Hessenwinkler Straße</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
           <t>1 a</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>13.749034</v>
+      </c>
       <c r="K2" t="n">
-        <v>13.749034</v>
-      </c>
-      <c r="L2" t="n">
         <v>52.425845</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>2017-08-25</t>
         </is>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="M2" s="3" t="n">
         <v>53929</v>
       </c>
     </row>
@@ -7438,17 +6730,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>2013-10-16</t>
         </is>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="M3" s="3" t="n">
         <v>52520</v>
       </c>
     </row>
@@ -7482,17 +6769,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>2019-02-18</t>
         </is>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="M4" s="3" t="n">
         <v>48993</v>
       </c>
     </row>
@@ -7526,17 +6808,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>2019-10-14</t>
         </is>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="M5" s="3" t="n">
         <v>49231</v>
       </c>
     </row>
@@ -7570,17 +6847,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>2019-09-30</t>
         </is>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="M6" s="3" t="n">
         <v>49217</v>
       </c>
     </row>
@@ -7609,17 +6881,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>2016-11-10</t>
         </is>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="M7" s="3" t="n">
         <v>48162</v>
       </c>
     </row>
@@ -7644,26 +6911,21 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
+          <t>Dr. Hans Lebach Straße</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Dr. Hans Lebach Straße</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
           <t>7</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>13.747891</v>
+      </c>
       <c r="K8" t="n">
-        <v>13.747891</v>
-      </c>
-      <c r="L8" t="n">
         <v>52.428928</v>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>2016-06-01</t>
         </is>
@@ -7680,13 +6942,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="31" customWidth="1" min="2" max="2"/>
@@ -7695,13 +6957,12 @@
     <col width="24" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="49" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
     <col width="21" customWidth="1" min="13" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7742,35 +7003,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Einspeisungsart</t>
+          <t>Strasse</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Strasse</t>
+          <t>Hausnummer</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Hausnummer</t>
+          <t>Laengengrad</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Laengengrad</t>
+          <t>Breitengrad</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Breitengrad</t>
+          <t>Inbetriebnahmedatum</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Inbetriebnahmedatum</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Stilllegung</t>
         </is>
@@ -7808,29 +7064,24 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
           <t>Puschkinstraße</t>
         </is>
       </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>13.951048</v>
       </c>
       <c r="K2" t="n">
-        <v>13.951048</v>
-      </c>
-      <c r="L2" t="n">
         <v>52.463843</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>2013-07-18</t>
         </is>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="M2" s="3" t="n">
         <v>52430</v>
       </c>
     </row>
@@ -7859,17 +7110,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Volleinspeisung</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>2013-09-12</t>
         </is>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="M3" s="3" t="n">
         <v>52486</v>
       </c>
     </row>
@@ -7898,17 +7144,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="M4" s="3" t="n">
         <v>55824</v>
       </c>
     </row>
@@ -7937,17 +7178,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>2010-11-17</t>
         </is>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="M5" s="3" t="n">
         <v>51457</v>
       </c>
     </row>
@@ -7962,13 +7198,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="48" customWidth="1" min="2" max="2"/>
@@ -7977,13 +7213,12 @@
     <col width="24" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="49" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
     <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="21" customWidth="1" min="12" max="12"/>
     <col width="21" customWidth="1" min="13" max="13"/>
-    <col width="21" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8024,35 +7259,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Einspeisungsart</t>
+          <t>Strasse</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Strasse</t>
+          <t>Hausnummer</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Hausnummer</t>
+          <t>Laengengrad</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Laengengrad</t>
+          <t>Breitengrad</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Breitengrad</t>
+          <t>Inbetriebnahmedatum</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Inbetriebnahmedatum</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Stilllegung</t>
         </is>
@@ -8085,29 +7315,24 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
           <t>Kastanienallee</t>
         </is>
       </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
       <c r="J2" t="n">
-        <v>38</v>
+        <v>13.898662</v>
       </c>
       <c r="K2" t="n">
-        <v>13.898662</v>
-      </c>
-      <c r="L2" t="n">
         <v>52.58387</v>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>2021-07-05</t>
         </is>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="M2" s="3" t="n">
         <v>55339</v>
       </c>
     </row>
@@ -8138,29 +7363,24 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
           <t>Prötzeler Chaussee</t>
         </is>
       </c>
+      <c r="I3" t="n">
+        <v>25</v>
+      </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>13.922803</v>
       </c>
       <c r="K3" t="n">
-        <v>13.922803</v>
-      </c>
-      <c r="L3" t="n">
         <v>52.591412</v>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>2012-02-10</t>
         </is>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="M3" s="3" t="n">
         <v>51907</v>
       </c>
     </row>
@@ -8191,29 +7411,24 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
           <t>Drosselweg</t>
         </is>
       </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>13.869985</v>
       </c>
       <c r="K4" t="n">
-        <v>13.869985</v>
-      </c>
-      <c r="L4" t="n">
         <v>52.583103</v>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>2022-10-21</t>
         </is>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="M4" s="3" t="n">
         <v>55813</v>
       </c>
     </row>
@@ -8249,29 +7464,24 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
           <t>Lindenpromenade</t>
         </is>
       </c>
+      <c r="I5" t="n">
+        <v>13</v>
+      </c>
       <c r="J5" t="n">
-        <v>13</v>
+        <v>13.842455</v>
       </c>
       <c r="K5" t="n">
-        <v>13.842455</v>
-      </c>
-      <c r="L5" t="n">
         <v>52.536712</v>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>2018-09-18</t>
         </is>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="M5" s="3" t="n">
         <v>54319</v>
       </c>
     </row>
@@ -8302,24 +7512,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
           <t>Gielsdorfer Chaussee</t>
         </is>
       </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>13.892382</v>
       </c>
       <c r="K6" t="n">
-        <v>13.892382</v>
-      </c>
-      <c r="L6" t="n">
         <v>52.595782</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>2018-01-01</t>
         </is>
@@ -8352,29 +7557,24 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
           <t>Am Biotop</t>
         </is>
       </c>
+      <c r="I7" t="n">
+        <v>20</v>
+      </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>13.906</v>
       </c>
       <c r="K7" t="n">
-        <v>13.906</v>
-      </c>
-      <c r="L7" t="n">
         <v>52.585</v>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>2014-06-15</t>
         </is>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="M7" s="3" t="n">
         <v>52763</v>
       </c>
     </row>
@@ -8403,17 +7603,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>2022-11-18</t>
         </is>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="M8" s="3" t="n">
         <v>55841</v>
       </c>
     </row>
@@ -8447,17 +7642,12 @@
           <t>Stirlingmotor</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>2018-01-18</t>
         </is>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="M9" s="3" t="n">
         <v>52249</v>
       </c>
     </row>
@@ -8486,17 +7676,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>2021-01-27</t>
         </is>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="M10" s="3" t="n">
         <v>49701</v>
       </c>
     </row>
@@ -8525,17 +7710,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>2021-12-20</t>
         </is>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="M11" s="3" t="n">
         <v>55507</v>
       </c>
     </row>
@@ -8564,17 +7744,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>2010-01-19</t>
         </is>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="M12" s="3" t="n">
         <v>51154</v>
       </c>
     </row>
@@ -8598,17 +7773,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>2009-10-29</t>
         </is>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="M13" s="3" t="n">
         <v>51072</v>
       </c>
     </row>
@@ -8642,17 +7812,12 @@
           <t>Stirlingmotor</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>2015-11-06</t>
         </is>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="M14" s="3" t="n">
         <v>51446</v>
       </c>
     </row>
@@ -8676,12 +7841,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>2018-12-14</t>
         </is>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="M15" s="3" t="n">
         <v>54406</v>
       </c>
     </row>
@@ -8710,12 +7875,7 @@
           <t>Sonstige</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>2015-11-01</t>
         </is>
@@ -8746,12 +7906,7 @@
           <t>Sonstige</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>2015-06-15</t>
         </is>
@@ -8782,12 +7937,7 @@
           <t>Sonstige</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>2015-06-15</t>
         </is>
@@ -8818,17 +7968,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>2015-06-15</t>
         </is>
       </c>
-      <c r="N19" s="3" t="n">
+      <c r="M19" s="3" t="n">
         <v>53128</v>
       </c>
     </row>
@@ -8857,12 +8002,7 @@
           <t>Sonstige</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>2015-06-15</t>
         </is>
@@ -8893,17 +8033,12 @@
           <t>Verbrennungsmotor</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>2016-07-06</t>
         </is>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="M21" s="3" t="n">
         <v>53514</v>
       </c>
     </row>
@@ -8937,17 +8072,12 @@
           <t>Brennstoffzelle</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Teileinspeisung (einschließlich Eigenverbrauch)</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>2016-09-29</t>
         </is>
       </c>
-      <c r="N22" s="3" t="n">
+      <c r="M22" s="3" t="n">
         <v>48120</v>
       </c>
     </row>
